--- a/medicine/Mort/Terrorisme_en_1964/Terrorisme_en_1964.xlsx
+++ b/medicine/Mort/Terrorisme_en_1964/Terrorisme_en_1964.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,19 +520,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-Avril
-Mai
-Juin
-Juillet
-Août
-Septembre
-Octobre
-Novembre
-Décembre
-24 décembre, Viêt Nam : une bombe explose à l'hôtel Brink, faisant deux morts et une soixantaine de blessés. L'attentat est revendiqué par le Front national de libération du Sud Viêt Nam, également connu sous le nom de Việt Cộng[1].</t>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>24 décembre, Viêt Nam : une bombe explose à l'hôtel Brink, faisant deux morts et une soixantaine de blessés. L'attentat est revendiqué par le Front national de libération du Sud Viêt Nam, également connu sous le nom de Việt Cộng.</t>
         </is>
       </c>
     </row>
